--- a/biology/Zoologie/Catocala_fraxini/Catocala_fraxini.xlsx
+++ b/biology/Zoologie/Catocala_fraxini/Catocala_fraxini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Lichénée bleue (Catocala fraxini) est une espèce de lépidoptères de la famille des Erebidae.
 On trouve ce grand papillon dans des forêts claires d'Europe (arctique comprise), de l'est et du nord de l'Asie.
-Sa larve, très mimétique, se nourrit sur les peupliers et les frênes[1].
+Sa larve, très mimétique, se nourrit sur les peupliers et les frênes.
 </t>
         </is>
       </c>
